--- a/model/Outputs/8. Fixed RE/No PV/Output Files/60/Output_4_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV/Output Files/60/Output_4_43.xlsx
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>496136.5993148608</v>
+        <v>1006612591.088214</v>
       </c>
     </row>
   </sheetData>
